--- a/DB.xlsx
+++ b/DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maiko\src\localhost\tell_master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kawata\src\localhost\tell_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1359">
   <si>
     <t>(社員テーブル)</t>
     <rPh sb="1" eb="3">
@@ -5695,6 +5695,13 @@
   </si>
   <si>
     <t>http://www.res-system.com/weblog/item/620</t>
+  </si>
+  <si>
+    <t>select insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q1160890346</t>
   </si>
 </sst>
 </file>
@@ -6632,24 +6639,24 @@
       <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.86328125" customWidth="1"/>
-    <col min="8" max="8" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.86328125" customWidth="1"/>
-    <col min="18" max="18" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.86328125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.875" customWidth="1"/>
+    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
@@ -6661,7 +6668,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="14.25" thickBot="1">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1">
       <c r="B4" t="s">
         <v>887</v>
       </c>
@@ -6682,7 +6689,7 @@
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
     </row>
-    <row r="5" spans="1:24" ht="13.15" thickBot="1">
+    <row r="5" spans="1:24" ht="14.25" thickBot="1">
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -6884,7 +6891,7 @@
       <c r="W8" s="49"/>
       <c r="X8" s="49"/>
     </row>
-    <row r="9" spans="1:24" ht="13.15" thickBot="1">
+    <row r="9" spans="1:24" ht="14.25" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="72" t="s">
         <v>880</v>
@@ -6931,7 +6938,7 @@
       <c r="W9" s="49"/>
       <c r="X9" s="49"/>
     </row>
-    <row r="10" spans="1:24" ht="13.15" thickBot="1">
+    <row r="10" spans="1:24" ht="14.25" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="69" t="s">
         <v>830</v>
@@ -7046,7 +7053,7 @@
       <c r="O12" s="94"/>
       <c r="P12" s="94"/>
     </row>
-    <row r="13" spans="1:24" ht="13.15" thickBot="1">
+    <row r="13" spans="1:24" ht="14.25" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="69" t="s">
         <v>32</v>
@@ -7107,7 +7114,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:24" ht="13.15" thickBot="1">
+    <row r="15" spans="1:24" ht="14.25" thickBot="1">
       <c r="A15" s="5"/>
       <c r="B15" s="69" t="s">
         <v>33</v>
@@ -7145,7 +7152,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="13.15" thickBot="1">
+    <row r="16" spans="1:24" ht="14.25" thickBot="1">
       <c r="A16" s="5"/>
       <c r="B16" s="69" t="s">
         <v>823</v>
@@ -7299,7 +7306,7 @@
       <c r="W18" s="95"/>
       <c r="X18" s="95"/>
     </row>
-    <row r="19" spans="1:24" ht="13.15" thickBot="1">
+    <row r="19" spans="1:24" ht="14.25" thickBot="1">
       <c r="A19" s="1"/>
       <c r="B19" s="75" t="s">
         <v>821</v>
@@ -7374,7 +7381,7 @@
       <c r="W20" s="95"/>
       <c r="X20" s="95"/>
     </row>
-    <row r="21" spans="1:24" ht="13.15" thickBot="1">
+    <row r="21" spans="1:24" ht="14.25" thickBot="1">
       <c r="J21" s="72" t="s">
         <v>819</v>
       </c>
@@ -7417,7 +7424,7 @@
       <c r="O22" s="94"/>
       <c r="P22" s="94"/>
     </row>
-    <row r="23" spans="1:24" ht="13.15" thickBot="1">
+    <row r="23" spans="1:24" ht="14.25" thickBot="1">
       <c r="J23" s="75" t="s">
         <v>821</v>
       </c>
@@ -7440,7 +7447,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="13.15" thickBot="1">
+    <row r="25" spans="1:24" ht="14.25" thickBot="1">
       <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>988</v>
@@ -7451,7 +7458,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="13.15" thickBot="1">
+    <row r="26" spans="1:24" ht="14.25" thickBot="1">
       <c r="A26" s="9"/>
       <c r="B26" s="50" t="s">
         <v>1</v>
@@ -7484,7 +7491,7 @@
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
     </row>
-    <row r="27" spans="1:24" ht="13.15" thickBot="1">
+    <row r="27" spans="1:24" ht="14.25" thickBot="1">
       <c r="B27" s="66" t="s">
         <v>19</v>
       </c>
@@ -7616,7 +7623,7 @@
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
     </row>
-    <row r="31" spans="1:24" ht="13.15" thickBot="1">
+    <row r="31" spans="1:24" ht="14.25" thickBot="1">
       <c r="A31" s="9"/>
       <c r="B31" s="69" t="s">
         <v>44</v>
@@ -7650,7 +7657,7 @@
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
     </row>
-    <row r="32" spans="1:24" ht="13.15" thickBot="1">
+    <row r="32" spans="1:24" ht="14.25" thickBot="1">
       <c r="A32" s="9"/>
       <c r="B32" s="69" t="s">
         <v>507</v>
@@ -7684,7 +7691,7 @@
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
     </row>
-    <row r="33" spans="1:17" ht="13.9">
+    <row r="33" spans="1:17" ht="15">
       <c r="A33" s="9"/>
       <c r="B33" s="69" t="s">
         <v>624</v>
@@ -7705,7 +7712,7 @@
       <c r="H33" s="95"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:17" ht="13.9">
+    <row r="34" spans="1:17" ht="15">
       <c r="A34" s="9"/>
       <c r="B34" s="69" t="s">
         <v>622</v>
@@ -7727,7 +7734,7 @@
       <c r="I34" s="7"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="14.25" thickBot="1">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1">
       <c r="A35" s="9"/>
       <c r="B35" s="72" t="s">
         <v>819</v>
@@ -7758,7 +7765,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="14.25" thickBot="1">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1">
       <c r="A36" s="9"/>
       <c r="B36" s="72" t="s">
         <v>820</v>
@@ -7801,7 +7808,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="13.15" thickBot="1">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1">
       <c r="A37" s="9"/>
       <c r="B37" s="75" t="s">
         <v>821</v>
@@ -7865,7 +7872,7 @@
       <c r="P38" s="95"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="13.15" thickBot="1">
+    <row r="39" spans="1:17" ht="14.25" thickBot="1">
       <c r="B39" t="s">
         <v>1133</v>
       </c>
@@ -7886,7 +7893,7 @@
       <c r="P39" s="95"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="13.15" thickBot="1">
+    <row r="40" spans="1:17" ht="14.25" thickBot="1">
       <c r="B40" s="50" t="s">
         <v>1</v>
       </c>
@@ -7995,7 +8002,7 @@
       <c r="P42" s="95"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="14.25" thickBot="1">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1">
       <c r="B43" s="72" t="s">
         <v>831</v>
       </c>
@@ -8057,7 +8064,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="13.9">
+    <row r="45" spans="1:17" ht="15">
       <c r="B45" s="72" t="s">
         <v>820</v>
       </c>
@@ -8084,7 +8091,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="14.25" thickBot="1">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1">
       <c r="B46" s="75" t="s">
         <v>821</v>
       </c>
@@ -8111,7 +8118,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="13.9">
+    <row r="47" spans="1:17" ht="15">
       <c r="G47" s="94" t="s">
         <v>1344</v>
       </c>
@@ -8123,7 +8130,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="13.9">
+    <row r="48" spans="1:17" ht="15">
       <c r="G48" s="94" t="s">
         <v>1345</v>
       </c>
@@ -8135,7 +8142,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="2:16" ht="13.9">
+    <row r="49" spans="2:16" ht="15">
       <c r="I49" s="2"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -8553,9 +8560,9 @@
       <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" thickBot="1">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.15" thickBot="1">
+    <row r="2" spans="1:5" ht="14.25" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -8635,7 +8642,7 @@
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="63" t="s">
@@ -9129,10 +9136,10 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
@@ -9179,6 +9186,14 @@
     <row r="9" spans="2:9">
       <c r="B9" s="14" t="s">
         <v>1230</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="I10" s="14" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -9265,9 +9280,10 @@
     <hyperlink ref="I3" r:id="rId11"/>
     <hyperlink ref="I6" r:id="rId12"/>
     <hyperlink ref="I7" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -9282,26 +9298,26 @@
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.3984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="123.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="123.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.15" thickBot="1">
+    <row r="1" spans="1:17" ht="14.25" thickBot="1">
       <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
@@ -9346,7 +9362,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.15" thickBot="1">
+    <row r="2" spans="1:17" ht="14.25" thickBot="1">
       <c r="A2" s="67" t="s">
         <v>40</v>
       </c>
@@ -13343,16 +13359,16 @@
       <selection activeCell="J29" sqref="J2:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" thickBot="1">
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
@@ -13379,7 +13395,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.15" thickBot="1">
+    <row r="2" spans="1:10" ht="14.25" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>40</v>
       </c>
@@ -14096,14 +14112,14 @@
       <selection activeCell="I2" sqref="I2:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.15" thickBot="1">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
@@ -14127,7 +14143,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.15" thickBot="1">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>40</v>
       </c>
@@ -15082,12 +15098,12 @@
       <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" thickBot="1">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
@@ -15104,7 +15120,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.15" thickBot="1">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>40</v>
       </c>
@@ -15413,14 +15429,14 @@
       <selection activeCell="H2" sqref="H2:H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.15" thickBot="1">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
@@ -15443,7 +15459,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.15" thickBot="1">
+    <row r="2" spans="1:8" ht="14.25" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>40</v>
       </c>
@@ -17092,25 +17108,25 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1328125" style="40" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.46484375" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="147.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="40" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="147.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.15" thickBot="1">
+    <row r="1" spans="1:15" ht="14.25" thickBot="1">
       <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
@@ -17154,7 +17170,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.15" thickBot="1">
+    <row r="2" spans="1:15" ht="14.25" thickBot="1">
       <c r="A2" s="67" t="s">
         <v>40</v>
       </c>
@@ -17202,7 +17218,7 @@
         <v>INSERT INTO `customers` (`id`, `company_id`,`depart`, `name`,`name_ruby`, `tel`,`classification`, `memo`, `created_at`) VALUES</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="13.15">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17231,7 +17247,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13.15">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17257,7 +17273,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17283,7 +17299,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18530,7 +18546,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="25.5">
+    <row r="52" spans="1:15" ht="27">
       <c r="A52">
         <v>56</v>
       </c>
@@ -19341,19 +19357,19 @@
       <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="71.3984375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.265625" customWidth="1"/>
+    <col min="10" max="10" width="71.375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.15" thickBot="1">
+    <row r="1" spans="1:11" ht="14.25" thickBot="1">
       <c r="A1" s="78" t="s">
         <v>1338</v>
       </c>
@@ -19374,7 +19390,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.15" thickBot="1">
+    <row r="2" spans="1:11" ht="14.25" thickBot="1">
       <c r="A2" s="79" t="s">
         <v>40</v>
       </c>
@@ -19512,7 +19528,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.15">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -19540,7 +19556,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.15">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -19568,7 +19584,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.15">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -19596,7 +19612,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.15">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -19624,7 +19640,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.15">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -19652,7 +19668,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.15">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -19680,7 +19696,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.15">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -19708,7 +19724,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.15">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -19736,7 +19752,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.15">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
@@ -19764,7 +19780,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.15">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>14</v>
       </c>
@@ -19792,7 +19808,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.15">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>15</v>
       </c>
@@ -19820,7 +19836,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.15">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>16</v>
       </c>
@@ -19848,7 +19864,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.15">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19876,7 +19892,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.15">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -19904,7 +19920,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.15">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -19932,7 +19948,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.15">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -19960,7 +19976,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.15">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -19988,7 +20004,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.15">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -20016,7 +20032,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.15">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20044,7 +20060,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.15">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20098,7 +20114,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.15">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -20125,7 +20141,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.15">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -20152,7 +20168,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.15">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>
@@ -20179,7 +20195,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.15">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>30</v>
       </c>
@@ -20206,7 +20222,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.15">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>31</v>
       </c>
@@ -20233,7 +20249,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.15">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>32</v>
       </c>
@@ -20260,7 +20276,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.15">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>33</v>
       </c>
@@ -20287,7 +20303,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.15">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>34</v>
       </c>
@@ -20314,7 +20330,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.15">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>35</v>
       </c>
@@ -20341,7 +20357,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.15">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>36</v>
       </c>
@@ -20395,7 +20411,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.15">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>38</v>
       </c>
@@ -20422,7 +20438,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.15">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>39</v>
       </c>
@@ -20449,7 +20465,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.15">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>40</v>
       </c>
@@ -20476,7 +20492,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.15">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>41</v>
       </c>
@@ -20503,7 +20519,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.15">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>42</v>
       </c>
@@ -20530,7 +20546,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.15">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>43</v>
       </c>
@@ -20557,7 +20573,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.15">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>44</v>
       </c>
@@ -20584,7 +20600,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.15">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>45</v>
       </c>
@@ -20611,7 +20627,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.15">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>46</v>
       </c>
@@ -20665,7 +20681,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.15">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>49</v>
       </c>
@@ -20692,7 +20708,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.15">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>50</v>
       </c>
@@ -20719,7 +20735,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.15">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>51</v>
       </c>
@@ -20746,7 +20762,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.15">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>52</v>
       </c>
@@ -20773,7 +20789,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.15">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>53</v>
       </c>
@@ -20800,7 +20816,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.15">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>54</v>
       </c>
@@ -20827,7 +20843,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.15">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>55</v>
       </c>
@@ -20881,7 +20897,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.15">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>57</v>
       </c>
@@ -20935,7 +20951,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.15">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>59</v>
       </c>
@@ -20962,7 +20978,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="13.15">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>60</v>
       </c>
@@ -20989,7 +21005,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="13.15">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>61</v>
       </c>
@@ -21016,7 +21032,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="13.15">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>62</v>
       </c>
@@ -21043,7 +21059,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="13.15">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>63</v>
       </c>
@@ -21070,7 +21086,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.15">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>64</v>
       </c>
@@ -21097,7 +21113,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="13.15">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>65</v>
       </c>
@@ -21124,7 +21140,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="13.15">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>66</v>
       </c>
@@ -21151,7 +21167,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="13.15">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>67</v>
       </c>
@@ -21178,7 +21194,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="13.15">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>68</v>
       </c>
@@ -21205,7 +21221,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="13.15">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>69</v>
       </c>
@@ -21259,7 +21275,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="13.15">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>71</v>
       </c>
@@ -21286,7 +21302,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="13.15">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>72</v>
       </c>
@@ -21313,7 +21329,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="13.15">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>73</v>
       </c>
@@ -21341,7 +21357,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="13.15">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>74</v>
       </c>
@@ -21369,7 +21385,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="13.15">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>75</v>
       </c>
@@ -21397,7 +21413,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="13.15">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>76</v>
       </c>
@@ -21425,7 +21441,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="13.15">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>77</v>
       </c>
@@ -21453,7 +21469,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="13.15">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>78</v>
       </c>
@@ -21481,7 +21497,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="13.15">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>79</v>
       </c>
@@ -21509,7 +21525,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="13.15">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>80</v>
       </c>
@@ -21536,7 +21552,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="13.15">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>81</v>
       </c>
@@ -21563,7 +21579,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="13.15">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>82</v>
       </c>
@@ -21590,7 +21606,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="13.15">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>83</v>
       </c>
@@ -21617,7 +21633,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="13.15">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>84</v>
       </c>
@@ -21644,7 +21660,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="13.15">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>85</v>
       </c>
@@ -21671,7 +21687,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="13.15">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>86</v>
       </c>
@@ -21698,7 +21714,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="13.15">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>87</v>
       </c>
@@ -21725,7 +21741,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="13.15">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>88</v>
       </c>
@@ -21752,7 +21768,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="13.15">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>89</v>
       </c>
@@ -21779,7 +21795,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="13.15">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>90</v>
       </c>
@@ -21806,7 +21822,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="13.15">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>91</v>
       </c>
@@ -21833,7 +21849,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="13.15">
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>92</v>
       </c>
@@ -21899,9 +21915,9 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.15" thickBot="1">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -21918,7 +21934,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.15" thickBot="1">
+    <row r="2" spans="1:5" ht="14.25" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
